--- a/NodeJsTask3/filedata/patientData.xlsx
+++ b/NodeJsTask3/filedata/patientData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,98 +436,98 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mrs</v>
+        <v>Mr</v>
       </c>
       <c r="B2" t="str">
-        <v>Anna-Luise</v>
+        <v>Dylan</v>
       </c>
       <c r="C2" t="str">
-        <v>Stange</v>
+        <v>Harris</v>
       </c>
       <c r="D2" t="str">
-        <v>unext</v>
+        <v>CARE</v>
       </c>
       <c r="E2" t="str">
-        <v>1948-07-27</v>
+        <v>1986-08-20</v>
       </c>
       <c r="F2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="G2" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="H2" t="str">
-        <v>2918,Schulstraße,Georgsmarienhütte,Mecklenburg-Vorpommern,54191</v>
+        <v>5551,Esk Street,Whangarei,Canterbury,84155</v>
       </c>
       <c r="I2" t="str">
-        <v>anna-luise.stange@example.com</v>
+        <v>dylan.harris@example.com</v>
       </c>
       <c r="J2" t="str">
-        <v>0335-2425885</v>
+        <v>(448)-778-0902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mrs</v>
+        <v>Ms</v>
       </c>
       <c r="B3" t="str">
-        <v>Sam</v>
+        <v>آیناز</v>
       </c>
       <c r="C3" t="str">
-        <v>Wells</v>
+        <v>علیزاده</v>
       </c>
       <c r="D3" t="str">
-        <v>ESI</v>
+        <v>CARE</v>
       </c>
       <c r="E3" t="str">
-        <v>1949-10-17</v>
+        <v>1982-02-14</v>
       </c>
       <c r="F3">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G3" t="str">
         <v>female</v>
       </c>
       <c r="H3" t="str">
-        <v>621,Grafton Street,Malahide,Tipperary,30643</v>
+        <v>4131,شهید محمد منتظری,قرچک,همدان,52650</v>
       </c>
       <c r="I3" t="str">
-        <v>sam.wells@example.com</v>
+        <v>aynz.aalyzdh@example.com</v>
       </c>
       <c r="J3" t="str">
-        <v>071-967-4643</v>
+        <v>054-96516762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Mrs</v>
+        <v>Miss</v>
       </c>
       <c r="B4" t="str">
-        <v>Victoria</v>
+        <v>Theresia</v>
       </c>
       <c r="C4" t="str">
-        <v>Poulsen</v>
+        <v>Prager</v>
       </c>
       <c r="D4" t="str">
         <v>ESI</v>
       </c>
       <c r="E4" t="str">
-        <v>1946-11-24</v>
+        <v>1985-11-21</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G4" t="str">
         <v>female</v>
       </c>
       <c r="H4" t="str">
-        <v>6780,Rørmosevej,Billum,Sjælland,12674</v>
+        <v>9761,Waldweg,Böblingen,Baden-Württemberg,82414</v>
       </c>
       <c r="I4" t="str">
-        <v>victoria.poulsen@example.com</v>
+        <v>theresia.prager@example.com</v>
       </c>
       <c r="J4" t="str">
-        <v>21953378</v>
+        <v>0033-9423559</v>
       </c>
     </row>
     <row r="5">
@@ -535,31 +535,31 @@
         <v>Mr</v>
       </c>
       <c r="B5" t="str">
-        <v>Jake</v>
+        <v>Jakob</v>
       </c>
       <c r="C5" t="str">
-        <v>Wood</v>
+        <v>Simpson</v>
       </c>
       <c r="D5" t="str">
-        <v>x labs</v>
+        <v>sri sai</v>
       </c>
       <c r="E5" t="str">
-        <v>1971-06-26</v>
+        <v>1978-02-05</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G5" t="str">
         <v>male</v>
       </c>
       <c r="H5" t="str">
-        <v>5320,Southampton Street,Christchurch,Auckland,91660</v>
+        <v>7150,Dublin Road,Arklow,Fingal,25599</v>
       </c>
       <c r="I5" t="str">
-        <v>jake.wood@example.com</v>
+        <v>jakob.simpson@example.com</v>
       </c>
       <c r="J5" t="str">
-        <v>(316)-371-9503</v>
+        <v>071-708-1098</v>
       </c>
     </row>
     <row r="6">
@@ -567,127 +567,127 @@
         <v>Mr</v>
       </c>
       <c r="B6" t="str">
-        <v>Nathaniel</v>
+        <v>Bilaal</v>
       </c>
       <c r="C6" t="str">
-        <v>Fields</v>
+        <v>Schilder</v>
       </c>
       <c r="D6" t="str">
         <v>ESI</v>
       </c>
       <c r="E6" t="str">
-        <v>1991-11-22</v>
+        <v>1972-02-22</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G6" t="str">
         <v>male</v>
       </c>
       <c r="H6" t="str">
-        <v>7209,Tara Street,Loughrea,Roscommon,70525</v>
+        <v>80,Boterzandestraat,Rozenburg Zh,Limburg,4675 QQ</v>
       </c>
       <c r="I6" t="str">
-        <v>nathaniel.fields@example.com</v>
+        <v>bilaal.schilder@example.com</v>
       </c>
       <c r="J6" t="str">
-        <v>071-676-0128</v>
+        <v>(0336) 791259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mrs</v>
+        <v>Madame</v>
       </c>
       <c r="B7" t="str">
-        <v>Kazka</v>
+        <v>Gabriella</v>
       </c>
       <c r="C7" t="str">
-        <v>Yashchuk</v>
+        <v>Arnaud</v>
       </c>
       <c r="D7" t="str">
-        <v>ESI</v>
+        <v>innominds</v>
       </c>
       <c r="E7" t="str">
-        <v>1986-11-23</v>
+        <v>1979-10-29</v>
       </c>
       <c r="F7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G7" t="str">
         <v>female</v>
       </c>
       <c r="H7" t="str">
-        <v>3393,Pobutoviy provulok,Zboriv,Hmelnicka,99035</v>
+        <v>1317,Rue du Dauphiné,Wasterkingen,Aargau,3808</v>
       </c>
       <c r="I7" t="str">
-        <v>kazka.yashchuk@example.com</v>
+        <v>gabriella.arnaud@example.com</v>
       </c>
       <c r="J7" t="str">
-        <v>(067) A79-6243</v>
+        <v>076 776 96 87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Ms</v>
+        <v>Monsieur</v>
       </c>
       <c r="B8" t="str">
-        <v>Melike</v>
+        <v>Ueli</v>
       </c>
       <c r="C8" t="str">
-        <v>Balcı</v>
+        <v>Mathieu</v>
       </c>
       <c r="D8" t="str">
         <v>CARE</v>
       </c>
       <c r="E8" t="str">
-        <v>1974-04-28</v>
+        <v>2000-02-25</v>
       </c>
       <c r="F8">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G8" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="H8" t="str">
-        <v>5286,Fatih Sultan Mehmet Cd,Manisa,Kars,36660</v>
+        <v>858,Place de L'Abbé-Jean-Lebeuf,Neggio,Vaud,1118</v>
       </c>
       <c r="I8" t="str">
-        <v>melike.balci@example.com</v>
+        <v>ueli.mathieu@example.com</v>
       </c>
       <c r="J8" t="str">
-        <v>(740)-285-8666</v>
+        <v>075 597 21 49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Mr</v>
+        <v>Madame</v>
       </c>
       <c r="B9" t="str">
-        <v>Jim</v>
+        <v>Roberta</v>
       </c>
       <c r="C9" t="str">
-        <v>Clarke</v>
+        <v>Schmitt</v>
       </c>
       <c r="D9" t="str">
-        <v>CARE</v>
+        <v>ESI</v>
       </c>
       <c r="E9" t="str">
-        <v>1974-12-23</v>
+        <v>1994-09-04</v>
       </c>
       <c r="F9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G9" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="H9" t="str">
-        <v>3819,The Drive,Shannon,Leitrim,56757</v>
+        <v>1835,Rue Chazière,Herrliberg,Thurgau,8336</v>
       </c>
       <c r="I9" t="str">
-        <v>jim.clarke@example.com</v>
+        <v>roberta.schmitt@example.com</v>
       </c>
       <c r="J9" t="str">
-        <v>021-649-4600</v>
+        <v>077 914 21 76</v>
       </c>
     </row>
     <row r="10">
@@ -695,68 +695,228 @@
         <v>Mr</v>
       </c>
       <c r="B10" t="str">
-        <v>Rafael</v>
+        <v>Anatole</v>
       </c>
       <c r="C10" t="str">
-        <v>Wheeler</v>
+        <v>Gautier</v>
       </c>
       <c r="D10" t="str">
-        <v>unext</v>
+        <v>CARE</v>
       </c>
       <c r="E10" t="str">
-        <v>1958-01-18</v>
+        <v>1971-02-24</v>
       </c>
       <c r="F10">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G10" t="str">
         <v>male</v>
       </c>
       <c r="H10" t="str">
-        <v>9766,Fairview Road,Stevenage,Dorset,TF60 2WR</v>
+        <v>9523,Rue Dubois,Avignon,Ain,96128</v>
       </c>
       <c r="I10" t="str">
-        <v>rafael.wheeler@example.com</v>
+        <v>anatole.gautier@example.com</v>
       </c>
       <c r="J10" t="str">
-        <v>01789 91629</v>
+        <v>02-43-15-99-27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Miss</v>
+        <v>Mrs</v>
       </c>
       <c r="B11" t="str">
-        <v>Yasmine</v>
+        <v>Raquel</v>
       </c>
       <c r="C11" t="str">
-        <v>Hollanders</v>
+        <v>Márquez</v>
       </c>
       <c r="D11" t="str">
-        <v>innominds</v>
+        <v>unext</v>
       </c>
       <c r="E11" t="str">
-        <v>1971-11-14</v>
+        <v>1976-06-15</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G11" t="str">
         <v>female</v>
       </c>
       <c r="H11" t="str">
-        <v>907,I.M. van der Bijlstraat,Waaxens gem Dongeradeel,Zuid-Holland,4737 CR</v>
+        <v>376,Calle de La Luna,Granada,Comunidad de Madrid,93872</v>
       </c>
       <c r="I11" t="str">
-        <v>yasmine.hollanders@example.com</v>
+        <v>raquel.marquez@example.com</v>
       </c>
       <c r="J11" t="str">
-        <v>(0712) 715689</v>
+        <v>956-961-011</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>mr</v>
+      </c>
+      <c r="B12" t="str">
+        <v>shaik</v>
+      </c>
+      <c r="C12" t="str">
+        <v>mahimood</v>
+      </c>
+      <c r="D12" t="str">
+        <v>innominds</v>
+      </c>
+      <c r="E12" t="str">
+        <v>1970-08-25</v>
+      </c>
+      <c r="F12">
+        <v>52</v>
+      </c>
+      <c r="G12" t="str">
+        <v>male</v>
+      </c>
+      <c r="H12" t="str">
+        <v>1/6,Indranagar,Gachibowli,Telangana,500032</v>
+      </c>
+      <c r="I12" t="str">
+        <v>mahi@gmail.com</v>
+      </c>
+      <c r="J12">
+        <v>9876896867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>mr</v>
+      </c>
+      <c r="B13" t="str">
+        <v>raj</v>
+      </c>
+      <c r="C13" t="str">
+        <v>kumar</v>
+      </c>
+      <c r="D13" t="str">
+        <v>innominds</v>
+      </c>
+      <c r="E13" t="str">
+        <v>1967-06-04</v>
+      </c>
+      <c r="F13">
+        <v>55</v>
+      </c>
+      <c r="G13" t="str">
+        <v>male</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2-35/6,Indra nagar,Gachibowli,Telangana,500032</v>
+      </c>
+      <c r="I13" t="str">
+        <v>raj@gmail.com</v>
+      </c>
+      <c r="J13">
+        <v>9898987766</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>mr</v>
+      </c>
+      <c r="B14" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="C14" t="str">
+        <v>kumar</v>
+      </c>
+      <c r="D14" t="str">
+        <v>sri sai</v>
+      </c>
+      <c r="E14" t="str">
+        <v>1948-02-06</v>
+      </c>
+      <c r="F14">
+        <v>74</v>
+      </c>
+      <c r="G14" t="str">
+        <v>male</v>
+      </c>
+      <c r="H14" t="str">
+        <v>1-88/2,Indra nagar,Gachibowli,Telangana,500032</v>
+      </c>
+      <c r="I14" t="str">
+        <v>kumar3@gmail.com</v>
+      </c>
+      <c r="J14">
+        <v>9089768653</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>mr</v>
+      </c>
+      <c r="B15" t="str">
+        <v>jaya</v>
+      </c>
+      <c r="C15" t="str">
+        <v>deep</v>
+      </c>
+      <c r="D15" t="str">
+        <v>x labs</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1960-07-06</v>
+      </c>
+      <c r="F15">
+        <v>62</v>
+      </c>
+      <c r="G15" t="str">
+        <v>male</v>
+      </c>
+      <c r="H15" t="str">
+        <v>1-08/5,Indra nagar,Gachibowli,Telangana,500032</v>
+      </c>
+      <c r="I15" t="str">
+        <v>jaya@gmail.com</v>
+      </c>
+      <c r="J15">
+        <v>9870000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>mr</v>
+      </c>
+      <c r="B16" t="str">
+        <v>shaik</v>
+      </c>
+      <c r="C16" t="str">
+        <v>hameed</v>
+      </c>
+      <c r="D16" t="str">
+        <v>unext</v>
+      </c>
+      <c r="E16" t="str">
+        <v>1947-04-29</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16" t="str">
+        <v>male</v>
+      </c>
+      <c r="H16" t="str">
+        <v>1-202/3,Indra nagar,Gachibowli,Telangana,500032</v>
+      </c>
+      <c r="I16" t="str">
+        <v>hameed@gmail.com</v>
+      </c>
+      <c r="J16">
+        <v>9876896999</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J16"/>
   </ignoredErrors>
 </worksheet>
 </file>